--- a/mock-historical.xlsx
+++ b/mock-historical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\fim-shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F92F13F-0010-4D14-938D-3409CE5E6E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E114D2-F71F-414E-9848-A19E8E85770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Type of disbursement</t>
   </si>
@@ -114,16 +114,13 @@
     <t>2023 Q4</t>
   </si>
   <si>
-    <t>Disbursement 1</t>
-  </si>
-  <si>
-    <t>Disbursement 2</t>
-  </si>
-  <si>
-    <t>Disbursement 3</t>
-  </si>
-  <si>
-    <t>Disbursement 4</t>
+    <t>Purchases</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Transfers</t>
   </si>
 </sst>
 </file>
@@ -448,18 +445,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AD6"/>
+  <dimension ref="B2:AD5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B6" sqref="B6:AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -637,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -726,7 +723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -813,95 +810,6 @@
       </c>
       <c r="AD5">
         <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
-        <v>17</v>
-      </c>
-      <c r="J6">
-        <v>18</v>
-      </c>
-      <c r="K6">
-        <v>19</v>
-      </c>
-      <c r="L6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>21</v>
-      </c>
-      <c r="N6">
-        <v>22</v>
-      </c>
-      <c r="O6">
-        <v>23</v>
-      </c>
-      <c r="P6">
-        <v>24</v>
-      </c>
-      <c r="Q6">
-        <v>25</v>
-      </c>
-      <c r="R6">
-        <v>26</v>
-      </c>
-      <c r="S6">
-        <v>27</v>
-      </c>
-      <c r="T6">
-        <v>28</v>
-      </c>
-      <c r="U6">
-        <v>29</v>
-      </c>
-      <c r="V6">
-        <v>30</v>
-      </c>
-      <c r="W6">
-        <v>31</v>
-      </c>
-      <c r="X6">
-        <v>32</v>
-      </c>
-      <c r="Y6">
-        <v>33</v>
-      </c>
-      <c r="Z6">
-        <v>34</v>
-      </c>
-      <c r="AA6">
-        <v>35</v>
-      </c>
-      <c r="AB6">
-        <v>36</v>
-      </c>
-      <c r="AC6">
-        <v>37</v>
-      </c>
-      <c r="AD6">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/mock-historical.xlsx
+++ b/mock-historical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\fim-shiny\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E114D2-F71F-414E-9848-A19E8E85770C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F56EE-918C-401E-B973-E495D464D9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
